--- a/JRI_Project_Assignment/src/test/resources/testdata/JRI_TestCases_Practice.xlsx
+++ b/JRI_Project_Assignment/src/test/resources/testdata/JRI_TestCases_Practice.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="18960" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="18960" windowHeight="8520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestCase!$A$1:$K$71</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:C6"/>
 </workbook>
 </file>
 
@@ -1439,7 +1438,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="24">
     <font>
       <sz val="11"/>
@@ -2377,7 +2376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3516,11 +3515,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B33"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.25"/>
@@ -31394,10 +31393,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView zoomScale="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
@@ -33081,7 +33080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/JRI_Project_Assignment/src/test/resources/testdata/JRI_TestCases_Practice.xlsx
+++ b/JRI_Project_Assignment/src/test/resources/testdata/JRI_TestCases_Practice.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="18960" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11565" windowHeight="6420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="3" r:id="rId1"/>
@@ -15,8 +15,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestCase!$A$1:$K$71</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <oleSize ref="A1:C6"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="B12:D19"/>
 </workbook>
 </file>
 
@@ -1439,7 +1439,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="24">
     <font>
       <sz val="11"/>
@@ -2176,6 +2176,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2377,10 +2380,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3516,11 +3519,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B33"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.25"/>
@@ -31394,10 +31397,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G999"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView zoomScale="145" workbookViewId="0">
+    <sheetView topLeftCell="F26" zoomScale="55" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
@@ -33081,7 +33084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
